--- a/data/sheets/Golds Colour.xlsx
+++ b/data/sheets/Golds Colour.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/28aa9e46087b5738/0-Concordia_Capital/excel_to_https/excel_web_refresh/export/sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAB1B3FD-71BA-4141-974B-E0A3277E8457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA641531-F1AA-4883-8D35-CC0EF4E9A4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DF23386A-A743-43BF-923D-9EB4B3150C88}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EE0AE8E4-A333-4A97-9776-5A2EF301FD15}"/>
   </bookViews>
   <sheets>
-    <sheet name="Golds Colour" sheetId="2" r:id="rId1"/>
+    <sheet name="Golds Colour" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
@@ -48,7 +48,6 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" localSheetId="0" hidden="1">46064.7990046296</definedName>
     <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">46064.7990046296</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
@@ -309,14 +308,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -498,87 +490,85 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{1FB7EFEF-F6BF-4B2E-A29E-744C0F845E01}"/>
-    <cellStyle name="百分比 2" xfId="2" xr:uid="{EF57B6DC-FC4E-4F42-8554-9FCF455D412A}"/>
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -2184,7 +2174,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23ED9747-168B-4AA3-BB46-A2736C304F97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AA9D8E5-5250-4B5B-B59D-80C47CC90110}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2198,7 +2188,7 @@
       <selection pane="bottomRight" activeCell="I2678" sqref="I2678"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.2" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.109375" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="2" max="2" width="27.109375" style="1" customWidth="1" collapsed="1"/>
@@ -2210,7 +2200,7 @@
     <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C1" s="2">
         <v>0.2</v>
       </c>
@@ -2227,7 +2217,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2247,7 +2237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
@@ -2257,7 +2247,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
@@ -2282,7 +2272,7 @@
         <v>-1.3514405548387676E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
@@ -2307,7 +2297,7 @@
         <v>0.34929651055705957</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>9</v>
       </c>
@@ -2332,7 +2322,7 @@
         <v>-0.17148491097088192</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>10</v>
       </c>
@@ -2357,7 +2347,7 @@
         <v>8.085719473054831E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>11</v>
       </c>
@@ -2382,7 +2372,7 @@
         <v>0.29243579675634823</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>12</v>
       </c>
@@ -2407,7 +2397,7 @@
         <v>1.1460831396109983E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>13</v>
       </c>
@@ -2432,7 +2422,7 @@
         <v>-7.7867519360965143E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>14</v>
       </c>
@@ -2442,7 +2432,7 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
         <v>15</v>
       </c>
@@ -2467,7 +2457,7 @@
         <v>0.11415992550489862</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>16</v>
       </c>
@@ -2492,7 +2482,7 @@
         <v>0.77302564524614459</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -2520,7 +2510,7 @@
         <v>-0.35148179264705015</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
@@ -2545,7 +2535,7 @@
         <v>-2.6281738250123476E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>20</v>
       </c>
@@ -2570,7 +2560,7 @@
         <v>0.54050164019823255</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
@@ -2595,7 +2585,7 @@
         <v>0.46545513706846942</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>22</v>
       </c>
@@ -2620,7 +2610,7 @@
         <v>0.7302486281881575</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
@@ -2645,7 +2635,7 @@
         <v>2.4902501535941424E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -2673,7 +2663,7 @@
         <v>0.51979627750288415</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>25</v>
       </c>
@@ -2698,7 +2688,7 @@
         <v>0.13498556460723465</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
         <v>26</v>
       </c>
@@ -2723,7 +2713,7 @@
         <v>0.42299312599596739</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>27</v>
       </c>
@@ -2748,7 +2738,7 @@
         <v>0.14636239340060042</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
         <v>28</v>
       </c>
@@ -2773,7 +2763,7 @@
         <v>0.8310056240162198</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>29</v>
       </c>
@@ -2798,7 +2788,7 @@
         <v>0.7872193306352695</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>30</v>
       </c>
@@ -2823,7 +2813,7 @@
         <v>0.63481062774164077</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>31</v>
       </c>
@@ -2848,7 +2838,7 @@
         <v>1.2400764260572741</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>32</v>
       </c>
@@ -2873,7 +2863,7 @@
         <v>0.43583704843432236</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>33</v>
       </c>
@@ -2898,7 +2888,7 @@
         <v>0.14914421181830684</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>34</v>
       </c>
@@ -2923,7 +2913,7 @@
         <v>6.5967461898340352E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>35</v>
       </c>
@@ -2948,7 +2938,7 @@
         <v>0.1703966380912898</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
         <v>36</v>
       </c>
@@ -2973,7 +2963,7 @@
         <v>0.39501767192887915</v>
       </c>
     </row>
-    <row r="33" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
         <v>37</v>
       </c>
@@ -2998,7 +2988,7 @@
         <v>-0.11731783668063611</v>
       </c>
     </row>
-    <row r="34" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
         <v>38</v>
       </c>
@@ -3023,7 +3013,7 @@
         <v>7.9587346904455902E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:7" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
         <v>39</v>
       </c>
@@ -3036,7 +3026,7 @@
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
     </row>
-    <row r="36" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
         <v>40</v>
       </c>
@@ -3061,7 +3051,7 @@
         <v>0.3629930561643282</v>
       </c>
     </row>
-    <row r="37" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
         <v>41</v>
       </c>
@@ -3086,7 +3076,7 @@
         <v>1.3306077962289966</v>
       </c>
     </row>
-    <row r="38" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
         <v>42</v>
       </c>
@@ -3111,7 +3101,7 @@
         <v>0.25970219446529996</v>
       </c>
     </row>
-    <row r="39" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>43</v>
       </c>
@@ -3136,7 +3126,7 @@
         <v>-0.32087163416514408</v>
       </c>
     </row>
-    <row r="40" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
         <v>44</v>
       </c>
@@ -3161,7 +3151,7 @@
         <v>-0.36053817147851941</v>
       </c>
     </row>
-    <row r="41" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>45</v>
       </c>
@@ -3186,7 +3176,7 @@
         <v>0.31220694768351498</v>
       </c>
     </row>
-    <row r="42" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
         <v>46</v>
       </c>
@@ -3211,7 +3201,7 @@
         <v>0.55910079999999995</v>
       </c>
     </row>
-    <row r="43" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
         <v>47</v>
       </c>
@@ -3236,7 +3226,7 @@
         <v>-0.32636905547335426</v>
       </c>
     </row>
-    <row r="44" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
         <v>48</v>
       </c>
@@ -3261,7 +3251,7 @@
         <v>0.74298334128114085</v>
       </c>
     </row>
-    <row r="45" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
         <v>49</v>
       </c>
@@ -3286,7 +3276,7 @@
         <v>0.11703873469025572</v>
       </c>
     </row>
-    <row r="46" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
         <v>50</v>
       </c>
@@ -3311,7 +3301,7 @@
         <v>0.14511150021760644</v>
       </c>
     </row>
-    <row r="47" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
         <v>51</v>
       </c>
@@ -3336,7 +3326,7 @@
         <v>5.2095031267620273E-2</v>
       </c>
     </row>
-    <row r="48" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>52</v>
       </c>
@@ -3361,7 +3351,7 @@
         <v>0.42904202800991009</v>
       </c>
     </row>
-    <row r="49" spans="2:12" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
         <v>53</v>
       </c>
@@ -3386,7 +3376,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="50" spans="2:12" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
         <v>54</v>
       </c>
@@ -3411,7 +3401,7 @@
         <v>3.1616388278075558E-2</v>
       </c>
     </row>
-    <row r="51" spans="2:12" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
         <v>55</v>
       </c>
@@ -3436,7 +3426,7 @@
         <v>8.5369230714492206E-2</v>
       </c>
     </row>
-    <row r="52" spans="2:12" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
         <v>56</v>
       </c>
@@ -3461,7 +3451,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="53" spans="2:12" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
         <v>57</v>
       </c>
@@ -3486,7 +3476,7 @@
         <v>-5.5126064367690852E-2</v>
       </c>
     </row>
-    <row r="54" spans="2:12" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
         <v>58</v>
       </c>
@@ -3511,7 +3501,7 @@
         <v>0.10791184932690423</v>
       </c>
     </row>
-    <row r="55" spans="2:12" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
         <v>59</v>
       </c>
@@ -3536,7 +3526,7 @@
         <v>-5.259177528523562E-3</v>
       </c>
     </row>
-    <row r="56" spans="2:12" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
         <v>60</v>
       </c>
@@ -3561,7 +3551,7 @@
         <v>-0.13254173203997732</v>
       </c>
     </row>
-    <row r="57" spans="2:12" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>61</v>
       </c>
@@ -3586,7 +3576,7 @@
         <v>1.4207675325859201</v>
       </c>
     </row>
-    <row r="58" spans="2:12" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>62</v>
       </c>
@@ -3608,7 +3598,7 @@
       </c>
       <c r="L58" s="18"/>
     </row>
-    <row r="59" spans="2:12" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>63</v>
       </c>
@@ -3629,7 +3619,7 @@
         <v>-0.48895926995991623</v>
       </c>
     </row>
-    <row r="60" spans="2:12" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>64</v>
       </c>
@@ -3650,7 +3640,7 @@
         <v>-0.67417236861940943</v>
       </c>
     </row>
-    <row r="61" spans="2:12" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
         <v>65</v>
       </c>
@@ -3671,7 +3661,7 @@
         <v>-0.76870171288783407</v>
       </c>
     </row>
-    <row r="62" spans="2:12" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B62" s="10" t="s">
         <v>66</v>
       </c>
@@ -3692,7 +3682,7 @@
         <v>-0.64892261051134759</v>
       </c>
     </row>
-    <row r="63" spans="2:12" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
         <v>67</v>
       </c>
@@ -3713,7 +3703,7 @@
         <v>-0.88396831038701618</v>
       </c>
     </row>
-    <row r="64" spans="2:12" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
         <v>68</v>
       </c>
@@ -3734,7 +3724,7 @@
         <v>-0.25406941013490392</v>
       </c>
     </row>
-    <row r="65" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
         <v>69</v>
       </c>
@@ -3755,7 +3745,7 @@
         <v>-0.91350763440550042</v>
       </c>
     </row>
-    <row r="66" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
         <v>70</v>
       </c>
@@ -3776,7 +3766,7 @@
         <v>-0.72477438221337642</v>
       </c>
     </row>
-    <row r="67" spans="2:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="19"/>
       <c r="C67" s="20"/>
       <c r="D67" s="21"/>
